--- a/data/trans_orig/P19E-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>285016</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>256531</v>
+        <v>254867</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>315010</v>
+        <v>315268</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2626229720023814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2363764211752496</v>
+        <v>0.2348432548391872</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2902606163370228</v>
+        <v>0.2904986773556019</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>412</v>
@@ -763,19 +763,19 @@
         <v>433828</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>402073</v>
+        <v>400919</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>471412</v>
+        <v>467113</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3542067764361257</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.328279737934408</v>
+        <v>0.3273381075080216</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3848933281082226</v>
+        <v>0.3813827855317545</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>675</v>
@@ -784,19 +784,19 @@
         <v>718844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>674421</v>
+        <v>674372</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>766756</v>
+        <v>767241</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3111805725849534</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2919505094362176</v>
+        <v>0.2919293188547022</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3319214721295274</v>
+        <v>0.3321315037102258</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>327339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>297771</v>
+        <v>296475</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>358097</v>
+        <v>356359</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3016208958624585</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2743757278997753</v>
+        <v>0.2731820625467468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3299626790706424</v>
+        <v>0.328360973911706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>389</v>
@@ -834,19 +834,19 @@
         <v>410392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>379128</v>
+        <v>376601</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>444380</v>
+        <v>445760</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3350718847641656</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3095462904272488</v>
+        <v>0.3074827366522422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3628223543358365</v>
+        <v>0.3639487593453374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>703</v>
@@ -855,19 +855,19 @@
         <v>737731</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>688878</v>
+        <v>691966</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>782052</v>
+        <v>786278</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3193565617722126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.298208763140601</v>
+        <v>0.2995453974240574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3385427085251825</v>
+        <v>0.3403721339042101</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>315113</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>287822</v>
+        <v>288829</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>348170</v>
+        <v>350302</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2903553385020837</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2652088121059263</v>
+        <v>0.2661367666410077</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3208153845623877</v>
+        <v>0.3227798203846958</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>279</v>
@@ -905,19 +905,19 @@
         <v>291554</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>262532</v>
+        <v>263539</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>323929</v>
+        <v>323905</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2380448110586891</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2143488886911949</v>
+        <v>0.2151709841714017</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2644776913618753</v>
+        <v>0.2644578592088132</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>579</v>
@@ -926,19 +926,19 @@
         <v>606667</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>564956</v>
+        <v>567969</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>653129</v>
+        <v>651921</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2626203725486042</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2445639692138907</v>
+        <v>0.2458685265104771</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2827333699402441</v>
+        <v>0.2822102314459546</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>57238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44338</v>
+        <v>42755</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74677</v>
+        <v>74959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05274059108033258</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04085464927130592</v>
+        <v>0.03939628972221412</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06881000068005606</v>
+        <v>0.06907005034954961</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -976,19 +976,19 @@
         <v>30035</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20134</v>
+        <v>19283</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44214</v>
+        <v>41939</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02452251719998536</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01643888743570111</v>
+        <v>0.01574415744884116</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03609928533484904</v>
+        <v>0.03424192051141605</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -997,19 +997,19 @@
         <v>87272</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70472</v>
+        <v>69951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110722</v>
+        <v>107639</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03777940914250785</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03050666507667599</v>
+        <v>0.03028103784437468</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04793037574629198</v>
+        <v>0.04659584683426184</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>100561</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>81581</v>
+        <v>81248</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>121494</v>
+        <v>121928</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09266020255274375</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07517159886875684</v>
+        <v>0.0748647421434645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1119487385088553</v>
+        <v>0.112348845406608</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>52</v>
@@ -1047,19 +1047,19 @@
         <v>58978</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44654</v>
+        <v>45028</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76177</v>
+        <v>76879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04815401054103421</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03645828490266634</v>
+        <v>0.0367636182141761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06219651154558041</v>
+        <v>0.06276953508535674</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -1068,19 +1068,19 @@
         <v>159539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>134965</v>
+        <v>136147</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>184829</v>
+        <v>185425</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06906308395172198</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05842521035444904</v>
+        <v>0.05893694655331066</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0800107313186133</v>
+        <v>0.08026862179173963</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>301586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>275786</v>
+        <v>273943</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>333933</v>
+        <v>328936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3394542478884696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3104150801139493</v>
+        <v>0.3083404757734364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.375863715051775</v>
+        <v>0.3702392442108789</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>409</v>
@@ -1193,19 +1193,19 @@
         <v>430295</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>399619</v>
+        <v>399295</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>458240</v>
+        <v>461899</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4403661071509578</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4089720052020759</v>
+        <v>0.4086398347797063</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4689651581716812</v>
+        <v>0.4727091446154016</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>700</v>
@@ -1214,19 +1214,19 @@
         <v>731881</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>689990</v>
+        <v>692105</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>771714</v>
+        <v>774738</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3923088245319609</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3698543583659694</v>
+        <v>0.3709878853962993</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4136606860735147</v>
+        <v>0.4152812923520198</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>279179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>250887</v>
+        <v>248942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308356</v>
+        <v>307449</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3142334969267913</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.282389562990812</v>
+        <v>0.2802007381089114</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3470747320873419</v>
+        <v>0.3460534140509662</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>315</v>
@@ -1264,19 +1264,19 @@
         <v>330601</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>301350</v>
+        <v>299873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>362740</v>
+        <v>362275</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3383380359874587</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3084030251016769</v>
+        <v>0.3068915422411295</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3712291397453611</v>
+        <v>0.370753417594805</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>589</v>
@@ -1285,19 +1285,19 @@
         <v>609779</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>570017</v>
+        <v>567558</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649106</v>
+        <v>654057</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3268587246903993</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3055451367458185</v>
+        <v>0.3042272087001813</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3479392944939932</v>
+        <v>0.3505931280016123</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>217710</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>190130</v>
+        <v>194376</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>245714</v>
+        <v>247655</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2450464648337072</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2140040404826606</v>
+        <v>0.21878244089085</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2765670188474312</v>
+        <v>0.2787511756167357</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>158</v>
@@ -1335,19 +1335,19 @@
         <v>166445</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>143679</v>
+        <v>144121</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>191249</v>
+        <v>190989</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1703400264060911</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.147042177310567</v>
+        <v>0.1474936666887758</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1957247915815476</v>
+        <v>0.1954588373218962</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>366</v>
@@ -1356,19 +1356,19 @@
         <v>384154</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>351180</v>
+        <v>352511</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>420298</v>
+        <v>417764</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2059174942202156</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1882423875673162</v>
+        <v>0.188956049561004</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2252916591571398</v>
+        <v>0.2239331154999755</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>24679</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16130</v>
+        <v>16919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35895</v>
+        <v>37025</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02777745213092216</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01815508571995354</v>
+        <v>0.01904379997385311</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04040190580110006</v>
+        <v>0.04167423358008643</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1406,19 +1406,19 @@
         <v>17158</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9736</v>
+        <v>9506</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27730</v>
+        <v>28607</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01755974166281746</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009964282777221355</v>
+        <v>0.00972812423760306</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02837856169144925</v>
+        <v>0.02927674712071778</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -1427,19 +1427,19 @@
         <v>41837</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30384</v>
+        <v>30645</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56733</v>
+        <v>58318</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0224257247422445</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01628658369576169</v>
+        <v>0.01642663867652524</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0304105535602824</v>
+        <v>0.03125997145702022</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>65290</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49530</v>
+        <v>51719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81052</v>
+        <v>83342</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07348833822010985</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.055749075279627</v>
+        <v>0.05821352237494637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09122947741348975</v>
+        <v>0.09380645099530298</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -1477,19 +1477,19 @@
         <v>32632</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21700</v>
+        <v>21826</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46160</v>
+        <v>44952</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03339608879267492</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02220830106143147</v>
+        <v>0.02233718629217666</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04724009343452969</v>
+        <v>0.04600454390529399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>91</v>
@@ -1498,19 +1498,19 @@
         <v>97922</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>80186</v>
+        <v>79858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>120715</v>
+        <v>119793</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05248923181517964</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04298170284706408</v>
+        <v>0.04280601018490367</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06470662598396407</v>
+        <v>0.06421250748717784</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>371970</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>344626</v>
+        <v>344615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>401039</v>
+        <v>401306</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4626829325283862</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4286713176323629</v>
+        <v>0.4286568954361922</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4988418295110759</v>
+        <v>0.4991739502942764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>352</v>
@@ -1623,19 +1623,19 @@
         <v>369455</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>342176</v>
+        <v>344489</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>399071</v>
+        <v>397232</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4909109576528509</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4546639526029514</v>
+        <v>0.4577366773048759</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5302623109403631</v>
+        <v>0.5278190974783423</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>706</v>
@@ -1644,19 +1644,19 @@
         <v>741425</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>697818</v>
+        <v>700096</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>783086</v>
+        <v>778181</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4763313248330164</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4483158508965248</v>
+        <v>0.449779253168023</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5030967416582887</v>
+        <v>0.4999456058915347</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>210291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185035</v>
+        <v>186092</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>234412</v>
+        <v>235350</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2615757542017267</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2301600117255356</v>
+        <v>0.2314750413044394</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2915781803319346</v>
+        <v>0.2927448643278124</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>215</v>
@@ -1694,19 +1694,19 @@
         <v>227249</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>202067</v>
+        <v>203934</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>255594</v>
+        <v>253828</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3019552358388803</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2684955071491607</v>
+        <v>0.2709756880381061</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3396182893467399</v>
+        <v>0.3372719084943001</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>415</v>
@@ -1715,19 +1715,19 @@
         <v>437540</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>403407</v>
+        <v>401019</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>477242</v>
+        <v>474275</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2810994369252425</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2591702741423545</v>
+        <v>0.2576359892837001</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3066060598871377</v>
+        <v>0.304700004981551</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>158986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>136748</v>
+        <v>137166</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>181930</v>
+        <v>183974</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1977586433941043</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1700968071054668</v>
+        <v>0.1706165278988779</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2262981146920073</v>
+        <v>0.2288405430294587</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>112</v>
@@ -1765,19 +1765,19 @@
         <v>120014</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>99596</v>
+        <v>101500</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>143241</v>
+        <v>143064</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1594681908283359</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1323369392910487</v>
+        <v>0.1348671707740057</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1903304735490311</v>
+        <v>0.1900955831986727</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>265</v>
@@ -1786,19 +1786,19 @@
         <v>279001</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>249162</v>
+        <v>249316</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>310598</v>
+        <v>310235</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1792450167469993</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.160074955911132</v>
+        <v>0.1601743473535792</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1995447620728274</v>
+        <v>0.1993114872754729</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>7981</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3500</v>
+        <v>3397</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16995</v>
+        <v>16284</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009927293106842068</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004354066018702145</v>
+        <v>0.004225771536647667</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.021139096532635</v>
+        <v>0.02025468009086695</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1836,19 +1836,19 @@
         <v>9770</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4208</v>
+        <v>4192</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20161</v>
+        <v>19524</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01298134014573745</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005591358355080333</v>
+        <v>0.005569515550872399</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02678934901252717</v>
+        <v>0.0259430095126091</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -1857,19 +1857,19 @@
         <v>17751</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9781</v>
+        <v>10392</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29007</v>
+        <v>28113</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01140394023039562</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006283953365667739</v>
+        <v>0.006676316165686855</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01863568145798675</v>
+        <v>0.01806106763698453</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>54713</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40740</v>
+        <v>40682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69445</v>
+        <v>69185</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06805537676894072</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05067566181907987</v>
+        <v>0.05060296713347169</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08638085271540022</v>
+        <v>0.0860575515003463</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -1907,19 +1907,19 @@
         <v>26103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16714</v>
+        <v>17264</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38461</v>
+        <v>38163</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03468427553419542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02220802475955892</v>
+        <v>0.02293950969773463</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05110443759466798</v>
+        <v>0.05070908638432704</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -1928,19 +1928,19 @@
         <v>80816</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>64188</v>
+        <v>63655</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>101381</v>
+        <v>98235</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05192028126434618</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04123784474739739</v>
+        <v>0.0408956002873487</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06513276382870185</v>
+        <v>0.06311169906528749</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>189779</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>167925</v>
+        <v>166756</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>211052</v>
+        <v>212073</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3841272347527577</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.339892575430023</v>
+        <v>0.3375281306513641</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4271864129127799</v>
+        <v>0.4292514155464615</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>235</v>
@@ -2053,19 +2053,19 @@
         <v>251487</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>229267</v>
+        <v>228257</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>275429</v>
+        <v>273813</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5202645437012486</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4742963255214122</v>
+        <v>0.4722070259600245</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5697946466175313</v>
+        <v>0.5664509018808174</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>413</v>
@@ -2074,19 +2074,19 @@
         <v>441266</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>409054</v>
+        <v>409030</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>473039</v>
+        <v>474507</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4514529079631303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4184973067921067</v>
+        <v>0.4184727067851007</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4839590431110595</v>
+        <v>0.4854617232571863</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>162113</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>139905</v>
+        <v>140445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>183443</v>
+        <v>184787</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.328129167484507</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2831795961556594</v>
+        <v>0.2842712324080403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3713030113564378</v>
+        <v>0.3740233627157732</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>150</v>
@@ -2124,19 +2124,19 @@
         <v>160043</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>137554</v>
+        <v>137725</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>180216</v>
+        <v>180840</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3310898032177231</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.284566138828824</v>
+        <v>0.2849192332553103</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3728224669700268</v>
+        <v>0.374113029184916</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>300</v>
@@ -2145,19 +2145,19 @@
         <v>322156</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>293224</v>
+        <v>292395</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>354785</v>
+        <v>353777</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3295933274228005</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2999931186500268</v>
+        <v>0.2991449797500633</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3629758398448523</v>
+        <v>0.3619442237022393</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>112655</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>93955</v>
+        <v>95827</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>132923</v>
+        <v>134254</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2280219723170778</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1901725031532208</v>
+        <v>0.1939615526205916</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2690458450283882</v>
+        <v>0.2717403471816611</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>56</v>
@@ -2195,19 +2195,19 @@
         <v>62229</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47741</v>
+        <v>48856</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80018</v>
+        <v>78407</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1287361101520315</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09876439360102873</v>
+        <v>0.101070062367004</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1655380265845499</v>
+        <v>0.1622050862307789</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>160</v>
@@ -2216,19 +2216,19 @@
         <v>174884</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>151434</v>
+        <v>153009</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>199607</v>
+        <v>199265</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.17892090250628</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1549294888433543</v>
+        <v>0.1565418581486632</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2042153562532978</v>
+        <v>0.2038657194137719</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>8566</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4234</v>
+        <v>3820</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15744</v>
+        <v>14913</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01733773412311647</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008569848528009861</v>
+        <v>0.007732941202496422</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03186753219558435</v>
+        <v>0.03018591322108197</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2266,19 +2266,19 @@
         <v>3745</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10112</v>
+        <v>10516</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007747752872673134</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002483948251763558</v>
+        <v>0.002478564375781556</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02091963435398542</v>
+        <v>0.02175558505707115</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2287,19 +2287,19 @@
         <v>12311</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7047</v>
+        <v>6732</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21453</v>
+        <v>22488</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01259508165886629</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007209419227552983</v>
+        <v>0.006887033548188049</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02194795109040858</v>
+        <v>0.02300752911471484</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>20940</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12717</v>
+        <v>12312</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32297</v>
+        <v>32653</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04238389132254097</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02574072443236328</v>
+        <v>0.02492090601749355</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06537152005657694</v>
+        <v>0.06609233048010521</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2337,19 +2337,19 @@
         <v>5879</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2083</v>
+        <v>2095</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12104</v>
+        <v>12715</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01216179005632351</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004308785484679154</v>
+        <v>0.004334432180537552</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0250393914611098</v>
+        <v>0.02630477806207834</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2358,19 +2358,19 @@
         <v>26819</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17552</v>
+        <v>17643</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>39146</v>
+        <v>40033</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0274377804489229</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01795732862708177</v>
+        <v>0.01805016072082802</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04004940571284552</v>
+        <v>0.0409575882530686</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>1148350</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1096761</v>
+        <v>1093022</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1208339</v>
+        <v>1206158</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3509947193284841</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3352263520182476</v>
+        <v>0.3340835769487305</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3693302802323246</v>
+        <v>0.3686638988565867</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1408</v>
@@ -2483,19 +2483,19 @@
         <v>1485065</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1420030</v>
+        <v>1422385</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1544485</v>
+        <v>1541894</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4319697803146199</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4130526250684084</v>
+        <v>0.4137374738031161</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4492533611318179</v>
+        <v>0.4484997994835568</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2494</v>
@@ -2504,19 +2504,19 @@
         <v>2633416</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2556414</v>
+        <v>2555920</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2720717</v>
+        <v>2718527</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.392485086462607</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3810087605933211</v>
+        <v>0.380935165703912</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4054965664833571</v>
+        <v>0.4051701805532626</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>978922</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>927513</v>
+        <v>926348</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1035003</v>
+        <v>1033440</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2992087242363656</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2834955972656701</v>
+        <v>0.2831394020256308</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3163500334256807</v>
+        <v>0.3158722727031389</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1069</v>
@@ -2554,19 +2554,19 @@
         <v>1128284</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1069936</v>
+        <v>1075724</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1183230</v>
+        <v>1184303</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3281907162737648</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3112186281051583</v>
+        <v>0.3129022085559757</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3441732278788232</v>
+        <v>0.3444853487502988</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2007</v>
@@ -2575,19 +2575,19 @@
         <v>2107206</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2035781</v>
+        <v>2032920</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2184146</v>
+        <v>2186869</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3140586480927466</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3034134430766352</v>
+        <v>0.3029869964375368</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3255257939149082</v>
+        <v>0.3259317093242244</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>804464</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>754070</v>
+        <v>756244</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>857938</v>
+        <v>859764</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.245885352210735</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2304823965059328</v>
+        <v>0.2311469396758166</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2622298881246506</v>
+        <v>0.2627880711120682</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>605</v>
@@ -2625,19 +2625,19 @@
         <v>640242</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>600324</v>
+        <v>595669</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>692769</v>
+        <v>688199</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1862309448961658</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1746197502429605</v>
+        <v>0.1732657709219964</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2015097835191132</v>
+        <v>0.2001805229861564</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1370</v>
@@ -2646,19 +2646,19 @@
         <v>1444705</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1375983</v>
+        <v>1375603</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1517827</v>
+        <v>1518080</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.215319357810635</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2050769214002026</v>
+        <v>0.205020265921274</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2262174081250339</v>
+        <v>0.2262550849273591</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>98463</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>80766</v>
+        <v>79869</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>120721</v>
+        <v>119695</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03009533324052418</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02468615332734225</v>
+        <v>0.02441204561600756</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03689853967601282</v>
+        <v>0.03658486532927185</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>51</v>
@@ -2696,19 +2696,19 @@
         <v>60708</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>45379</v>
+        <v>46192</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>80312</v>
+        <v>79842</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01765843678770816</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0131996731509358</v>
+        <v>0.01343601992802492</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02336084530788885</v>
+        <v>0.02322420521990376</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>146</v>
@@ -2717,19 +2717,19 @@
         <v>159171</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>134496</v>
+        <v>135659</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>186629</v>
+        <v>186755</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02372286011667242</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02004530483946085</v>
+        <v>0.0202185919694552</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02781517924943311</v>
+        <v>0.02783402165770711</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>241504</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>211026</v>
+        <v>210322</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>272945</v>
+        <v>273668</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07381587098389106</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06450045755484053</v>
+        <v>0.06428525204546674</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08342589065021509</v>
+        <v>0.08364708890376327</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>110</v>
@@ -2767,19 +2767,19 @@
         <v>123593</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>102745</v>
+        <v>100949</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>145958</v>
+        <v>146903</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03595012172774132</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02988606533770884</v>
+        <v>0.02936361231138766</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04245580627212706</v>
+        <v>0.0427306739847466</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>339</v>
@@ -2788,19 +2788,19 @@
         <v>365096</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>327582</v>
+        <v>326768</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>402562</v>
+        <v>404536</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05441404751733899</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04882293550653811</v>
+        <v>0.04870156716398585</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05999795618531695</v>
+        <v>0.06029218587915493</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>93768</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74612</v>
+        <v>73547</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>115526</v>
+        <v>114865</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1894045749381711</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1507103022920089</v>
+        <v>0.1485596324349057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2333542546988399</v>
+        <v>0.2320178842594012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -3153,19 +3153,19 @@
         <v>160498</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142292</v>
+        <v>141659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>181651</v>
+        <v>181889</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2608460130833537</v>
+        <v>0.2608460130833536</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2312567818716163</v>
+        <v>0.2302285916186078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2952238274358769</v>
+        <v>0.2956099750756039</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>279</v>
@@ -3174,19 +3174,19 @@
         <v>254266</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>223532</v>
+        <v>227606</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>283275</v>
+        <v>284639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.228993171475588</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.20131328858389</v>
+        <v>0.204982950797149</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2551187199306045</v>
+        <v>0.2563467915505283</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>241045</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>214229</v>
+        <v>217089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264646</v>
+        <v>267569</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.486893016532446</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4327258966920451</v>
+        <v>0.4385032849176475</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5345659489223864</v>
+        <v>0.5404683552369113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>413</v>
@@ -3224,19 +3224,19 @@
         <v>308105</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285392</v>
+        <v>284590</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>330147</v>
+        <v>329054</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5007398396668363</v>
+        <v>0.5007398396668362</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4638262119297776</v>
+        <v>0.4625226116459425</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5365634870162799</v>
+        <v>0.5347876893004015</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>631</v>
@@ -3245,19 +3245,19 @@
         <v>549150</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>517323</v>
+        <v>518706</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>585201</v>
+        <v>590812</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4945661024700269</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4659024705943123</v>
+        <v>0.4671483045511838</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5270339937363173</v>
+        <v>0.5320869692383088</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>113331</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94516</v>
+        <v>94051</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>136027</v>
+        <v>134213</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2289205664428432</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1909155096929297</v>
+        <v>0.1899762291511336</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2747635908052024</v>
+        <v>0.2710992883402717</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>166</v>
@@ -3295,19 +3295,19 @@
         <v>109842</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>93883</v>
+        <v>95454</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>127500</v>
+        <v>129311</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1785185971815098</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1525803816506725</v>
+        <v>0.155134006883242</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2072169839024847</v>
+        <v>0.2101589871574013</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>274</v>
@@ -3316,19 +3316,19 @@
         <v>223174</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>197575</v>
+        <v>197918</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>250446</v>
+        <v>254452</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2009907923847777</v>
+        <v>0.2009907923847776</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1779363396570197</v>
+        <v>0.1782452628438581</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2255522143832997</v>
+        <v>0.2291602471836127</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>16206</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9537</v>
+        <v>9152</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25355</v>
+        <v>25640</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03273457187574055</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01926343172276014</v>
+        <v>0.01848684257923459</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05121593569031699</v>
+        <v>0.0517908814295888</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -3366,19 +3366,19 @@
         <v>14726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9580</v>
+        <v>9231</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23182</v>
+        <v>23630</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02393339157953429</v>
+        <v>0.02393339157953428</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01556940594450505</v>
+        <v>0.01500256108243489</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03767612662259869</v>
+        <v>0.03840352699225512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -3387,19 +3387,19 @@
         <v>30932</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21972</v>
+        <v>22013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42573</v>
+        <v>42950</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02785748114456707</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01978799329376196</v>
+        <v>0.01982503694948088</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03834165431866209</v>
+        <v>0.03868129290390995</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>30718</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21034</v>
+        <v>21163</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43385</v>
+        <v>44326</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06204727021079908</v>
+        <v>0.06204727021079907</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04248632768017655</v>
+        <v>0.04274705068641373</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08763411866190987</v>
+        <v>0.0895359928811042</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -3437,19 +3437,19 @@
         <v>22127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15402</v>
+        <v>16090</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30048</v>
+        <v>31073</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.03596215848876594</v>
+        <v>0.03596215848876593</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02503095999794188</v>
+        <v>0.02615049402742143</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04883535372172156</v>
+        <v>0.05049985187228114</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>73</v>
@@ -3458,19 +3458,19 @@
         <v>52845</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41137</v>
+        <v>40483</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>69439</v>
+        <v>66432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04759245252504048</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03704770644096409</v>
+        <v>0.03645915842120771</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0625374195774777</v>
+        <v>0.05982900664406175</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>147577</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122637</v>
+        <v>123451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174989</v>
+        <v>172939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1544268898281479</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1283289943832757</v>
+        <v>0.1291814555795067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1831114101825697</v>
+        <v>0.1809663342892859</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>373</v>
@@ -3583,19 +3583,19 @@
         <v>282956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>258262</v>
+        <v>255758</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>308488</v>
+        <v>308783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2546511417350417</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2324276244019494</v>
+        <v>0.2301743071646521</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2776294044404627</v>
+        <v>0.2778947082834181</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>499</v>
@@ -3604,19 +3604,19 @@
         <v>430533</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>395486</v>
+        <v>396215</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>468327</v>
+        <v>468612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2083095236762774</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.19135220773724</v>
+        <v>0.1917053439292296</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2265957961055225</v>
+        <v>0.2267336635374402</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>561720</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>526656</v>
+        <v>527858</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>596849</v>
+        <v>596548</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.58779306049504</v>
+        <v>0.5877930604950399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.551100896312299</v>
+        <v>0.5523587270661023</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6245523365398676</v>
+        <v>0.6242369831109599</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>850</v>
@@ -3654,19 +3654,19 @@
         <v>616554</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>589481</v>
+        <v>588132</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>642766</v>
+        <v>646059</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5548784710101015</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5305142815953625</v>
+        <v>0.5292998901538926</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5784688459906178</v>
+        <v>0.5814324165488512</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1352</v>
@@ -3675,19 +3675,19 @@
         <v>1178274</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1131518</v>
+        <v>1137120</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1219556</v>
+        <v>1224222</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5700974954024114</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.547474839223546</v>
+        <v>0.5501854133081043</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5900713410964772</v>
+        <v>0.5923289794456085</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>201536</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>177079</v>
+        <v>177134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>231194</v>
+        <v>229792</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2108904951739485</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1852987738564383</v>
+        <v>0.1853555755401144</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2419249115804457</v>
+        <v>0.2404580834423982</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>294</v>
@@ -3725,19 +3725,19 @@
         <v>166674</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>148161</v>
+        <v>149793</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>185264</v>
+        <v>188033</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1500009035036457</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1333401502494704</v>
+        <v>0.1348086049203733</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1667313753326206</v>
+        <v>0.1692235452936196</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>511</v>
@@ -3746,19 +3746,19 @@
         <v>368210</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>339517</v>
+        <v>334959</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>401900</v>
+        <v>401697</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1781549894384613</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1642721221433899</v>
+        <v>0.1620668988198556</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1944556287106457</v>
+        <v>0.1943575670350577</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>12145</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7142</v>
+        <v>7225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19131</v>
+        <v>20006</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01270853281833492</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00747332786711382</v>
+        <v>0.007560065472585387</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02001861284712764</v>
+        <v>0.02093468184138865</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -3796,19 +3796,19 @@
         <v>16486</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11377</v>
+        <v>11042</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23398</v>
+        <v>23274</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0148369322419368</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01023895595044774</v>
+        <v>0.009937456293521052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02105744803586226</v>
+        <v>0.02094593891586269</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -3817,19 +3817,19 @@
         <v>28631</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21724</v>
+        <v>20225</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38449</v>
+        <v>37898</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01385280443565813</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01051086571051989</v>
+        <v>0.009785689919040648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01860311053622036</v>
+        <v>0.01833681779066429</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>32665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23608</v>
+        <v>23335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46188</v>
+        <v>45979</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03418102168452879</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02470421032459373</v>
+        <v>0.02441837677951363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04833215008830338</v>
+        <v>0.04811303250618497</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -3867,19 +3867,19 @@
         <v>28482</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20309</v>
+        <v>20795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37890</v>
+        <v>37960</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02563255150927423</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01827700142864063</v>
+        <v>0.01871489469643547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03410012992037206</v>
+        <v>0.03416246474928423</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>94</v>
@@ -3888,19 +3888,19 @@
         <v>61146</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48874</v>
+        <v>48515</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>76026</v>
+        <v>75216</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02958518704719173</v>
+        <v>0.02958518704719174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02364746173319508</v>
+        <v>0.02347360186348517</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03678439461968389</v>
+        <v>0.03639244986583499</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>229275</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201102</v>
+        <v>199612</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>261367</v>
+        <v>260738</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2199044990934129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1928831263162951</v>
+        <v>0.191454388425121</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2506855840132292</v>
+        <v>0.2500820336619704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>457</v>
@@ -4013,19 +4013,19 @@
         <v>344140</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>317272</v>
+        <v>315753</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>372050</v>
+        <v>370272</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3297526604149005</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3040078241322415</v>
+        <v>0.3025524602403918</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3564961282765198</v>
+        <v>0.3547925585575528</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>657</v>
@@ -4034,19 +4034,19 @@
         <v>573414</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>532023</v>
+        <v>534054</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>613760</v>
+        <v>614605</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2748554173387903</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2550152200706792</v>
+        <v>0.2559889748881186</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2941943764251617</v>
+        <v>0.2945991654728456</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>519756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>486304</v>
+        <v>485577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>553340</v>
+        <v>555573</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4985139515662623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4664295624381926</v>
+        <v>0.4657319894068931</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5307260040969161</v>
+        <v>0.532867407043348</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>775</v>
@@ -4084,19 +4084,19 @@
         <v>529123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>498686</v>
+        <v>502391</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>557081</v>
+        <v>559000</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5070027069114089</v>
+        <v>0.5070027069114088</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4778375041113654</v>
+        <v>0.4813877695604526</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5337913891722605</v>
+        <v>0.5356307175552588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1278</v>
@@ -4105,19 +4105,19 @@
         <v>1048879</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1007372</v>
+        <v>997224</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1094132</v>
+        <v>1092280</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5027604031715011</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4828646993767077</v>
+        <v>0.4780005433519628</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5244515660920057</v>
+        <v>0.5235641007483125</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>249749</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>219061</v>
+        <v>220812</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>278299</v>
+        <v>277376</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2395423980217182</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2101081755517145</v>
+        <v>0.2117874954946194</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2669255865402443</v>
+        <v>0.266039787845536</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>239</v>
@@ -4155,19 +4155,19 @@
         <v>145829</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>128013</v>
+        <v>127910</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>163157</v>
+        <v>165977</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1397324473876836</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1226612103755749</v>
+        <v>0.1225629326390304</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1563364090550239</v>
+        <v>0.1590386084427289</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>508</v>
@@ -4176,19 +4176,19 @@
         <v>395578</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>361486</v>
+        <v>359758</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>428235</v>
+        <v>429294</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1896130376083535</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1732714363195778</v>
+        <v>0.1724434318583229</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2052663349837553</v>
+        <v>0.2057741915139321</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>13863</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7567</v>
+        <v>8005</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23869</v>
+        <v>25078</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01329689049673994</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007258142239493256</v>
+        <v>0.0076777408166766</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02289304291860646</v>
+        <v>0.02405273058321584</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -4226,19 +4226,19 @@
         <v>7794</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3815</v>
+        <v>3600</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13961</v>
+        <v>14028</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007468006496129696</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003655654396008993</v>
+        <v>0.003449463545500873</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01337769824018385</v>
+        <v>0.01344122774782251</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -4247,19 +4247,19 @@
         <v>21657</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14527</v>
+        <v>13820</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32220</v>
+        <v>32984</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01038102441098993</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006963061453209199</v>
+        <v>0.006624458380080073</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01544391893042896</v>
+        <v>0.0158101587326581</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>29967</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20742</v>
+        <v>20514</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41361</v>
+        <v>41055</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02874226082186663</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0198944232313489</v>
+        <v>0.01967541407072496</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03967060337025576</v>
+        <v>0.03937714790171834</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -4297,19 +4297,19 @@
         <v>16744</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11258</v>
+        <v>11488</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23753</v>
+        <v>23812</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01604417878987729</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01078746849163834</v>
+        <v>0.011007538978219</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02275978769738724</v>
+        <v>0.0228164554029583</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -4318,19 +4318,19 @@
         <v>46711</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35637</v>
+        <v>35921</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59986</v>
+        <v>61484</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02239011747036522</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01708172241882622</v>
+        <v>0.01721805185496871</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02875326900796018</v>
+        <v>0.02947116627264052</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>327426</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>296125</v>
+        <v>292308</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>361562</v>
+        <v>359481</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3363097673613459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3041594203329436</v>
+        <v>0.3002383323115752</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3713712330628043</v>
+        <v>0.3692337988507857</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>519</v>
@@ -4443,19 +4443,19 @@
         <v>376282</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>348071</v>
+        <v>348637</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>402268</v>
+        <v>404584</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4151458902508038</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.384020400745532</v>
+        <v>0.3846453407121165</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4438147893270237</v>
+        <v>0.446370920542054</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>819</v>
@@ -4464,19 +4464,19 @@
         <v>703709</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>661094</v>
+        <v>657594</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>751741</v>
+        <v>744082</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.374318832226205</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.351650827286221</v>
+        <v>0.3497891420863922</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3998680967463108</v>
+        <v>0.3957940515796145</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>465073</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>432003</v>
+        <v>435694</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>501021</v>
+        <v>503716</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4776909189001503</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4437230046207605</v>
+        <v>0.447514318489763</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5146135437132713</v>
+        <v>0.5173822267496495</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>669</v>
@@ -4514,19 +4514,19 @@
         <v>442335</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>417817</v>
+        <v>414875</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>467540</v>
+        <v>468072</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4880204837749971</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4609701185102784</v>
+        <v>0.4577249336193656</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.515828403133461</v>
+        <v>0.5164155879361719</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1125</v>
@@ -4535,19 +4535,19 @@
         <v>907408</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>861169</v>
+        <v>862520</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>947930</v>
+        <v>951702</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4826710864548682</v>
+        <v>0.4826710864548681</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.458075540535192</v>
+        <v>0.4587942617593191</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5042258173290051</v>
+        <v>0.5062322249358918</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>157460</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>134230</v>
+        <v>133697</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>182075</v>
+        <v>183606</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1617317879059466</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1378722280599043</v>
+        <v>0.1373242773101049</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1870144719217052</v>
+        <v>0.1885878049659867</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>105</v>
@@ -4585,19 +4585,19 @@
         <v>72019</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>56981</v>
+        <v>58969</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>88453</v>
+        <v>88988</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.07945688993108808</v>
+        <v>0.07945688993108807</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06286651397273213</v>
+        <v>0.06505973054056266</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09758843534716188</v>
+        <v>0.09817868825534613</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>266</v>
@@ -4606,19 +4606,19 @@
         <v>229478</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>206367</v>
+        <v>201461</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>263064</v>
+        <v>258096</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1220647949177078</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1097711151386894</v>
+        <v>0.1071618894893057</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1399294889901735</v>
+        <v>0.1372869976090678</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>6841</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3552</v>
+        <v>3483</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12603</v>
+        <v>12922</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007026598927369682</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003648673031282627</v>
+        <v>0.003577926202528797</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01294523712132539</v>
+        <v>0.01327215791011996</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -4656,19 +4656,19 @@
         <v>4716</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2037</v>
+        <v>2120</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8719</v>
+        <v>8766</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005203522974515152</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002247020027493541</v>
+        <v>0.002339427907340532</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009619635147998216</v>
+        <v>0.009671021319637983</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -4677,19 +4677,19 @@
         <v>11557</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6890</v>
+        <v>6592</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18468</v>
+        <v>18358</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.006147643829047889</v>
+        <v>0.006147643829047888</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003664965973353797</v>
+        <v>0.003506369864569211</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009823473986279736</v>
+        <v>0.009765024142540773</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>16786</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10265</v>
+        <v>10036</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25982</v>
+        <v>27463</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01724092690518751</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01054395487889587</v>
+        <v>0.01030790809057241</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02668656746766028</v>
+        <v>0.02820797066580059</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -4727,19 +4727,19 @@
         <v>11034</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6717</v>
+        <v>6337</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19096</v>
+        <v>18387</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01217321306859575</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007410523085490249</v>
+        <v>0.0069915682985135</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02106829386489539</v>
+        <v>0.02028638375422179</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -4748,19 +4748,19 @@
         <v>27819</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19231</v>
+        <v>19431</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>39336</v>
+        <v>39434</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01479764257217122</v>
+        <v>0.01479764257217121</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01022939771243911</v>
+        <v>0.01033561187543496</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02092368644454302</v>
+        <v>0.02097576012874772</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>798046</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>744757</v>
+        <v>743877</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>858366</v>
+        <v>853733</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2301896850326166</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2148188967114653</v>
+        <v>0.2145651391322945</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2475885129299509</v>
+        <v>0.2462521556057122</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1553</v>
@@ -4873,19 +4873,19 @@
         <v>1163876</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1106659</v>
+        <v>1113424</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1214961</v>
+        <v>1216578</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3165747590752645</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3010117174010744</v>
+        <v>0.3028516576550078</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3304696852270465</v>
+        <v>0.3309097507262142</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2254</v>
@@ -4894,19 +4894,19 @@
         <v>1961923</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1888934</v>
+        <v>1887338</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2040398</v>
+        <v>2034108</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2746493313004261</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2644317292664485</v>
+        <v>0.2642082042436103</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2856350948061726</v>
+        <v>0.2847545891452136</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>1787594</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1724758</v>
+        <v>1725490</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1858811</v>
+        <v>1850902</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5156164538007465</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4974919210177063</v>
+        <v>0.497703268291554</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5361584702108794</v>
+        <v>0.5338770509330165</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2707</v>
@@ -4944,19 +4944,19 @@
         <v>1896117</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1842248</v>
+        <v>1840758</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1953638</v>
+        <v>1955374</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5157443754264556</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5010920222710281</v>
+        <v>0.5006869259483729</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5313900843065297</v>
+        <v>0.531862311734434</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4386</v>
@@ -4965,19 +4965,19 @@
         <v>3683711</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3601040</v>
+        <v>3601697</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3770157</v>
+        <v>3767879</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5156822909872288</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5041091301376477</v>
+        <v>0.5042012318170925</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5277839224201291</v>
+        <v>0.5274649863947725</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>722076</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>669239</v>
+        <v>675148</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>774932</v>
+        <v>776527</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2082768292942521</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1930362437609452</v>
+        <v>0.1947409132264932</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2235227600081518</v>
+        <v>0.2239827683063965</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>804</v>
@@ -5015,19 +5015,19 @@
         <v>494364</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>457061</v>
+        <v>459548</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>529288</v>
+        <v>531990</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1344670564877261</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1243207800214478</v>
+        <v>0.124997317198855</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1439664144199713</v>
+        <v>0.1447015609962681</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1559</v>
@@ -5036,19 +5036,19 @@
         <v>1216440</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1159420</v>
+        <v>1162219</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1282915</v>
+        <v>1289412</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1702892900526299</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1623071272876204</v>
+        <v>0.1626989621406232</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1795950709461271</v>
+        <v>0.1805045827931545</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>49055</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>36612</v>
+        <v>37000</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>64866</v>
+        <v>63559</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.01414953543500386</v>
+        <v>0.01414953543500387</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01056042350369179</v>
+        <v>0.01067247490052301</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01870992505129669</v>
+        <v>0.01833306152879421</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>70</v>
@@ -5086,19 +5086,19 @@
         <v>43723</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>33680</v>
+        <v>33733</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>54236</v>
+        <v>55930</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01189253581907483</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.009161002104483309</v>
+        <v>0.009175305078364931</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01475209493007561</v>
+        <v>0.0152128752838251</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>129</v>
@@ -5107,19 +5107,19 @@
         <v>92778</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>76117</v>
+        <v>76897</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>110882</v>
+        <v>111369</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01298792961753074</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01065559487298037</v>
+        <v>0.01076475305267873</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01552234271842119</v>
+        <v>0.01559057426815364</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>110135</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>91294</v>
+        <v>91332</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>131146</v>
+        <v>130943</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0317674964373809</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0263330893934302</v>
+        <v>0.02634389259993607</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0378278415475221</v>
+        <v>0.03776947519944673</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>136</v>
@@ -5157,19 +5157,19 @@
         <v>78387</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>65813</v>
+        <v>65665</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>92667</v>
+        <v>94499</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.02132127319147899</v>
+        <v>0.021321273191479</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.017901282285214</v>
+        <v>0.01786101590294024</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02520532076251321</v>
+        <v>0.02570362422168608</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>265</v>
@@ -5178,19 +5178,19 @@
         <v>188522</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>165868</v>
+        <v>166697</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>215803</v>
+        <v>216733</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.02639115804218457</v>
+        <v>0.02639115804218456</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02321984141711884</v>
+        <v>0.02333593453483238</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03021027945899697</v>
+        <v>0.0303404102805425</v>
       </c>
     </row>
     <row r="33">
